--- a/king_abbreviation_matches.xlsx
+++ b/king_abbreviation_matches.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="620">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -265,6 +265,9 @@
     <t>Arad-Nannar (Lagaš)</t>
   </si>
   <si>
+    <t>Ir-Nanna</t>
+  </si>
+  <si>
     <t>Ars</t>
   </si>
   <si>
@@ -454,6 +457,51 @@
     <t>Ašir-nirâri</t>
   </si>
   <si>
+    <t>Aššur-nirari I</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Ašnr I</t>
+  </si>
+  <si>
+    <t>Ašnr II</t>
+  </si>
+  <si>
+    <t>Aššur-nirari II</t>
+  </si>
+  <si>
+    <t>1415–1409</t>
+  </si>
+  <si>
+    <t>Ašnr III</t>
+  </si>
+  <si>
+    <t>Aššur-nirari III</t>
+  </si>
+  <si>
+    <t>1200–1195</t>
+  </si>
+  <si>
+    <t>Ašnr IV</t>
+  </si>
+  <si>
+    <t>Aššur-nirari IV</t>
+  </si>
+  <si>
+    <t>1018–1013</t>
+  </si>
+  <si>
+    <t>Ašnr V</t>
+  </si>
+  <si>
+    <t>Aššur-nirari V</t>
+  </si>
+  <si>
+    <t>754–745</t>
+  </si>
+  <si>
     <t>Ašrn</t>
   </si>
   <si>
@@ -931,6 +979,9 @@
     <t>Kudur-Mabug</t>
   </si>
   <si>
+    <t>Kudur-Mabuk</t>
+  </si>
+  <si>
     <t>Kurig</t>
   </si>
   <si>
@@ -958,12 +1009,18 @@
     <t>Lugal-anda (Lagaš).</t>
   </si>
   <si>
+    <t>Lugalanda</t>
+  </si>
+  <si>
     <t>L-dudu</t>
   </si>
   <si>
     <t>Lugal-kigubnidudu</t>
   </si>
   <si>
+    <t>Lugalkineshdudu</t>
+  </si>
+  <si>
     <t>Libiti</t>
   </si>
   <si>
@@ -982,6 +1039,9 @@
     <t>Lugal-zaggisi</t>
   </si>
   <si>
+    <t>Lugalzagesi</t>
+  </si>
+  <si>
     <t>L-M</t>
   </si>
   <si>
@@ -994,18 +1054,27 @@
     <t>Lugal-kisalsi</t>
   </si>
   <si>
+    <t>Lugalkisalesi</t>
+  </si>
+  <si>
     <t>L-tarsi</t>
   </si>
   <si>
     <t>Lugal-tarsi</t>
   </si>
   <si>
+    <t>Lugalsilasi</t>
+  </si>
+  <si>
     <t>L-ušumgal</t>
   </si>
   <si>
     <t>Lugal-ušumgal</t>
   </si>
   <si>
+    <t>Lugalushumgal</t>
+  </si>
+  <si>
     <t>Mae</t>
   </si>
   <si>
@@ -1132,7 +1201,7 @@
     <t>Nar-S</t>
   </si>
   <si>
-    <t>Narâm-Sin 33 (Sippar).</t>
+    <t>Narâm-Sin 23 (Sippar).</t>
   </si>
   <si>
     <t>Nau</t>
@@ -1399,6 +1468,15 @@
     <t>Sargon 31 et 35.</t>
   </si>
   <si>
+    <t>Sargon II</t>
+  </si>
+  <si>
+    <t>721–705</t>
+  </si>
+  <si>
+    <t>709–705</t>
+  </si>
+  <si>
     <t>Sarat</t>
   </si>
   <si>
@@ -1706,6 +1784,42 @@
   </si>
   <si>
     <t>Tiglatphalasar</t>
+  </si>
+  <si>
+    <t>Tiglath-pileser I</t>
+  </si>
+  <si>
+    <t>1113–1076</t>
+  </si>
+  <si>
+    <t>Tig I</t>
+  </si>
+  <si>
+    <t>Tig II</t>
+  </si>
+  <si>
+    <t>Tiglath-pileser II</t>
+  </si>
+  <si>
+    <t>966–935</t>
+  </si>
+  <si>
+    <t>Tig III</t>
+  </si>
+  <si>
+    <t>Tiglath-pileser III</t>
+  </si>
+  <si>
+    <t>744–727</t>
+  </si>
+  <si>
+    <t>Tig IV</t>
+  </si>
+  <si>
+    <t>Tiglath-pileser / Pulu</t>
+  </si>
+  <si>
+    <t>728–727</t>
   </si>
   <si>
     <t>Tn</t>
@@ -1784,13 +1898,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1837,7 +1951,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1851,23 +1965,29 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2171,20 +2291,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E198"/>
+  <dimension ref="A1:E208"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="30.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="29.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="30.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="29.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2201,7 +2321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -2218,7 +2338,7 @@
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -2235,7 +2355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2252,7 +2372,7 @@
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -2265,11 +2385,11 @@
       <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>322</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -2286,7 +2406,7 @@
         <v>323</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -2303,7 +2423,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -2320,7 +2440,7 @@
         <v>361</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2337,7 +2457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -2354,7 +2474,7 @@
         <v>163</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
@@ -2371,7 +2491,7 @@
         <v>187</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3" t="s">
         <v>42</v>
       </c>
@@ -2388,7 +2508,7 @@
         <v>188</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3" t="s">
         <v>45</v>
       </c>
@@ -2405,7 +2525,7 @@
         <v>191</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3" t="s">
         <v>48</v>
       </c>
@@ -2422,7 +2542,7 @@
         <v>193</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3" t="s">
         <v>51</v>
       </c>
@@ -2439,7 +2559,7 @@
         <v>194</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3" t="s">
         <v>54</v>
       </c>
@@ -2456,7 +2576,7 @@
         <v>198</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3" t="s">
         <v>57</v>
       </c>
@@ -2473,7 +2593,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3" t="s">
         <v>60</v>
       </c>
@@ -2490,7 +2610,7 @@
         <v>202</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3" t="s">
         <v>63</v>
       </c>
@@ -2507,7 +2627,7 @@
         <v>204</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="3" t="s">
         <v>66</v>
       </c>
@@ -2524,7 +2644,7 @@
         <v>207</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="3" t="s">
         <v>69</v>
       </c>
@@ -2541,7 +2661,7 @@
         <v>208</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="3" t="s">
         <v>72</v>
       </c>
@@ -2558,7 +2678,7 @@
         <v>211</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="3" t="s">
         <v>75</v>
       </c>
@@ -2575,7 +2695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="3" t="s">
         <v>77</v>
       </c>
@@ -2592,7 +2712,7 @@
         <v>333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="3" t="s">
         <v>81</v>
       </c>
@@ -2600,7 +2720,7 @@
         <v>82</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>11</v>
@@ -2609,103 +2729,103 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="5">
+        <v>213</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="6">
+      <c r="D27" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="5">
         <v>213</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="A28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="6">
-        <v>213</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="C28" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="6">
+        <v>91</v>
+      </c>
+      <c r="E28" s="5">
         <v>214</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E29" s="5">
         <v>176</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="6">
+        <v>99</v>
+      </c>
+      <c r="E30" s="5">
         <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E31" s="5">
         <v>37</v>
@@ -2713,16 +2833,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E32" s="5">
         <v>156</v>
@@ -2730,33 +2850,33 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E33" s="5">
         <v>359</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E34" s="4">
         <v>360</v>
@@ -2764,67 +2884,67 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" s="6">
+        <v>115</v>
+      </c>
+      <c r="E35" s="5">
         <v>320</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>320</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" s="6">
+        <v>119</v>
+      </c>
+      <c r="E37" s="5">
         <v>364</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E38" s="5">
         <v>330</v>
@@ -2832,16 +2952,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="E39" s="5">
         <v>330</v>
@@ -2849,16 +2969,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E40" s="5">
         <v>345</v>
@@ -2866,16 +2986,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E41" s="5">
         <v>353</v>
@@ -2883,10 +3003,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>11</v>
@@ -2900,16 +3020,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E43" s="5">
         <v>101</v>
@@ -2917,16 +3037,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E44" s="4">
         <v>339</v>
@@ -2934,16 +3054,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="E45" s="4">
         <v>339</v>
@@ -2951,16 +3071,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D46" s="7" t="s">
         <v>143</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="E46" s="7">
         <v>348</v>
@@ -2968,70 +3088,68 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>11</v>
+        <v>147</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="4">
+        <v>307</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>11</v>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9">
+        <v>307</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D49" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E49" s="5">
-        <v>102</v>
+      <c r="D49" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" s="9">
+        <v>315</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E50" s="5">
-        <v>55</v>
+      <c r="E50" s="9">
+        <v>327</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
@@ -3039,33 +3157,33 @@
         <v>156</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>11</v>
+      <c r="D51" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" s="9">
+        <v>341</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E52" s="5">
-        <v>151</v>
+      <c r="E52" s="9">
+        <v>354</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
@@ -3076,62 +3194,64 @@
         <v>163</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E53" s="5">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="D54" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D54" s="6">
-        <v>484</v>
-      </c>
       <c r="E54" s="5">
-        <v>174</v>
+        <v>102</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D55" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>11</v>
+        <v>171</v>
+      </c>
+      <c r="E55" s="5">
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="5">
-        <v>78</v>
+        <v>11</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
@@ -3148,7 +3268,7 @@
         <v>177</v>
       </c>
       <c r="E57" s="5">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
@@ -3159,30 +3279,30 @@
         <v>179</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E58" s="5">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D59" s="4" t="s">
         <v>184</v>
       </c>
+      <c r="D59" s="5">
+        <v>484</v>
+      </c>
       <c r="E59" s="5">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
@@ -3190,279 +3310,277 @@
         <v>185</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E60" s="5">
-        <v>177</v>
+        <v>11</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>190</v>
-      </c>
+      <c r="D61" s="5"/>
       <c r="E61" s="5">
-        <v>181</v>
+        <v>78</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="D62" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>194</v>
-      </c>
       <c r="E62" s="5">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="C63" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E63" s="5">
-        <v>195</v>
+        <v>167</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E64" s="5">
-        <v>197</v>
+        <v>172</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E65" s="5">
-        <v>200</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E66" s="5">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E67" s="5">
-        <v>31</v>
+        <v>195</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>11</v>
+        <v>209</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>11</v>
+        <v>210</v>
+      </c>
+      <c r="E68" s="5">
+        <v>195</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E69" s="5">
-        <v>111</v>
+        <v>197</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D70" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>11</v>
+        <v>215</v>
+      </c>
+      <c r="E70" s="5">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>11</v>
+        <v>218</v>
+      </c>
+      <c r="E71" s="5">
+        <v>205</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>11</v>
+        <v>221</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>11</v>
+        <v>222</v>
+      </c>
+      <c r="E72" s="5">
+        <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>221</v>
+        <v>11</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E73" s="8">
-        <v>11.2</v>
+        <v>11</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E74" s="5">
-        <v>36</v>
+        <v>111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>228</v>
+        <v>11</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E75" s="6">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>11</v>
@@ -3476,19 +3594,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E77" s="5">
-        <v>51</v>
+        <v>11</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
@@ -3499,89 +3617,89 @@
         <v>236</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>11</v>
+        <v>238</v>
+      </c>
+      <c r="E78" s="10">
+        <v>11.2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E79" s="5">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>11</v>
+        <v>244</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E80" s="5">
+        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E81" s="5">
-        <v>108</v>
+        <v>11</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>11</v>
+        <v>250</v>
+      </c>
+      <c r="E82" s="5">
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>11</v>
@@ -3595,437 +3713,441 @@
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E84" s="5">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="4" t="s">
+      <c r="D85" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E86" s="5">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E87" s="5">
-        <v>284</v>
+        <v>11</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="5">
-        <v>305</v>
+        <v>11</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="E89" s="5">
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="3" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="E90" s="5">
-        <v>87</v>
+        <v>11</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E91" s="5">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E92" s="5">
-        <v>94</v>
+        <v>284</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="3" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D93" s="6"/>
+        <v>280</v>
+      </c>
+      <c r="D93" s="5"/>
       <c r="E93" s="5">
-        <v>85</v>
+        <v>305</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D94" s="6"/>
-      <c r="E94" s="5">
-        <v>85</v>
+        <v>11</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="3" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D95" s="6">
-        <v>1221</v>
+        <v>285</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="E95" s="5">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="3" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E96" s="5">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="C97" s="3" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E97" s="5">
-        <v>159</v>
+        <v>94</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D98" s="6"/>
+        <v>293</v>
+      </c>
+      <c r="D98" s="5"/>
       <c r="E98" s="5">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="3" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D99" s="6"/>
+        <v>293</v>
+      </c>
+      <c r="D99" s="5"/>
       <c r="E99" s="5">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>290</v>
-      </c>
       <c r="C100" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D100" s="6"/>
+        <v>296</v>
+      </c>
+      <c r="D100" s="5">
+        <v>1221</v>
+      </c>
       <c r="E100" s="5">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="3" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E101" s="5">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="3" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D102" s="6"/>
+        <v>301</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>302</v>
+      </c>
       <c r="E102" s="5">
-        <v>80</v>
+        <v>159</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="3" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>11</v>
+        <v>304</v>
+      </c>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5">
+        <v>84</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="3" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>302</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="D104" s="5"/>
       <c r="E104" s="5">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="3" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>11</v>
+        <v>307</v>
+      </c>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5">
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="3" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>306</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D106" s="6"/>
+        <v>310</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>311</v>
+      </c>
       <c r="E106" s="5">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="3" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>306</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D107" s="6"/>
+        <v>313</v>
+      </c>
+      <c r="D107" s="5"/>
       <c r="E107" s="5">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="3" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E108" s="5">
-        <v>91</v>
+        <v>11</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="3" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>11</v>
+        <v>317</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>11</v>
+        <v>318</v>
+      </c>
+      <c r="E109" s="5">
+        <v>95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="3" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>11</v>
+        <v>321</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>11</v>
@@ -4036,64 +4158,60 @@
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="3" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="E111" s="4">
-        <v>21</v>
+        <v>324</v>
+      </c>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5">
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>11</v>
+        <v>324</v>
+      </c>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5">
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="3" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>323</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D113" s="6">
-        <v>556</v>
+        <v>327</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>328</v>
       </c>
       <c r="E113" s="5">
-        <v>165</v>
+        <v>91</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>11</v>
@@ -4104,13 +4222,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="3" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>11</v>
+        <v>334</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>11</v>
@@ -4121,64 +4239,64 @@
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="3" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>11</v>
+        <v>337</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>11</v>
+        <v>338</v>
+      </c>
+      <c r="E116" s="4">
+        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="3" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D117" s="5">
-        <v>1046</v>
-      </c>
-      <c r="E117" s="5">
-        <v>115</v>
+        <v>341</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="3" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>336</v>
+        <v>343</v>
+      </c>
+      <c r="D118" s="5">
+        <v>556</v>
       </c>
       <c r="E118" s="5">
-        <v>104</v>
+        <v>165</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="3" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>11</v>
+        <v>346</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>11</v>
@@ -4189,78 +4307,78 @@
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="3" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E120" s="5">
-        <v>132</v>
+        <v>11</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="3" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="E121" s="5">
-        <v>103</v>
+        <v>11</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="3" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>350</v>
+        <v>355</v>
+      </c>
+      <c r="D122" s="5">
+        <v>1046</v>
       </c>
       <c r="E122" s="5">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="3" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E123" s="5">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="3" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>11</v>
@@ -4274,78 +4392,78 @@
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="3" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E125" s="5">
-        <v>3</v>
+        <v>132</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="3" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>11</v>
+        <v>368</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>11</v>
+        <v>369</v>
+      </c>
+      <c r="E126" s="5">
+        <v>103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="3" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="E127" s="5">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="3" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="E128" s="6">
-        <v>130</v>
+        <v>377</v>
+      </c>
+      <c r="E128" s="5">
+        <v>113</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="3" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>11</v>
@@ -4359,27 +4477,27 @@
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="3" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="E130" s="6">
-        <v>161</v>
+        <v>383</v>
+      </c>
+      <c r="E130" s="5">
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="3" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>11</v>
@@ -4393,1130 +4511,1300 @@
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="3" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="E132" s="5">
-        <v>166</v>
+        <v>131</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="3" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="E133" s="5">
-        <v>92</v>
+        <v>130</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="3" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>389</v>
+        <v>11</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="E134" s="5">
-        <v>162</v>
+        <v>11</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="3" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E135" s="5">
-        <v>110</v>
+        <v>161</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="3" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>397</v>
+        <v>11</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="E136" s="5">
-        <v>125</v>
+        <v>11</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="3" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E137" s="5">
-        <v>143</v>
+        <v>166</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E138" s="5">
-        <v>140</v>
+        <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E139" s="5">
-        <v>4</v>
+        <v>162</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="E140" s="6">
-        <v>164</v>
+        <v>417</v>
+      </c>
+      <c r="E140" s="5">
+        <v>110</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="3" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>11</v>
+        <v>420</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>11</v>
+        <v>421</v>
+      </c>
+      <c r="E141" s="5">
+        <v>125</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="3" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="E142" s="5">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="3" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="E143" s="6">
-        <v>129</v>
+        <v>429</v>
+      </c>
+      <c r="E143" s="5">
+        <v>140</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="3" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="E144" s="6">
-        <v>129</v>
+        <v>433</v>
+      </c>
+      <c r="E144" s="5">
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="3" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D145" s="6">
-        <v>732</v>
-      </c>
-      <c r="E145" s="6">
-        <v>142</v>
+        <v>436</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="E145" s="5">
+        <v>164</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="3" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>430</v>
+        <v>11</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="E146" s="6">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="3" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>11</v>
+        <v>442</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>11</v>
+        <v>443</v>
+      </c>
+      <c r="E147" s="5">
+        <v>139</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="3" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="E148" s="5">
-        <v>45</v>
+        <v>129</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="3" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="E149" s="5">
-        <v>45</v>
+        <v>129</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="3" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="E150" s="8">
-        <v>45.1</v>
+        <v>450</v>
+      </c>
+      <c r="D150" s="5">
+        <v>732</v>
+      </c>
+      <c r="E150" s="5">
+        <v>142</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="3" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="E151" s="5">
-        <v>324</v>
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="3" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>444</v>
+        <v>11</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="E152" s="5">
-        <v>324</v>
+        <v>11</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="3" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="E153" s="5">
-        <v>340</v>
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="3" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="E154" s="5">
-        <v>349</v>
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="3" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="E155" s="5">
-        <v>352</v>
+        <v>464</v>
+      </c>
+      <c r="E155" s="10">
+        <v>45.1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="3" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="E156" s="5">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="3" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>11</v>
+        <v>467</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>11</v>
+        <v>468</v>
+      </c>
+      <c r="E157" s="5">
+        <v>324</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="3" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>11</v>
+        <v>471</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>11</v>
+        <v>472</v>
+      </c>
+      <c r="E158" s="5">
+        <v>340</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="3" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="E159" s="5">
-        <v>56</v>
+        <v>349</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="3" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>11</v>
+        <v>477</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>11</v>
+        <v>478</v>
+      </c>
+      <c r="E160" s="5">
+        <v>352</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="3" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E161" s="5">
-        <v>148</v>
+        <v>356</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="3" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="E162" s="5">
-        <v>155</v>
+        <v>485</v>
+      </c>
+      <c r="E162" s="4">
+        <v>357</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="3" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="E163" s="5">
-        <v>358</v>
+        <v>486</v>
+      </c>
+      <c r="E163" s="4">
+        <v>147</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="3" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>476</v>
+        <v>11</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E164" s="4">
-        <v>52</v>
+        <v>11</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="3" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="D165" s="4"/>
-      <c r="E165" s="6">
-        <v>45.23</v>
+        <v>491</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E165" s="5">
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="3" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="D166" s="4"/>
-      <c r="E166" s="6">
-        <v>45.25</v>
+        <v>11</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="3" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="E167" s="5">
-        <v>40</v>
+        <v>148</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="3" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="E168" s="5">
-        <v>42</v>
+        <v>155</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="3" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="E169" s="5">
-        <v>41</v>
+        <v>358</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="3" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="D170" s="6"/>
-      <c r="E170" s="8">
-        <v>45.24</v>
+        <v>502</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="E170" s="4">
+        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="3" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="E171" s="4">
-        <v>30</v>
+        <v>506</v>
+      </c>
+      <c r="D171" s="4"/>
+      <c r="E171" s="5">
+        <v>45.23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="3" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="E172" s="4">
-        <v>47</v>
+        <v>509</v>
+      </c>
+      <c r="D172" s="4"/>
+      <c r="E172" s="5">
+        <v>45.25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="3" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="E173" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="3" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="D174" s="6">
-        <v>522</v>
+        <v>516</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>517</v>
       </c>
       <c r="E174" s="5">
-        <v>169</v>
+        <v>42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="3" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="E175" s="6">
-        <v>118</v>
+        <v>521</v>
+      </c>
+      <c r="E175" s="5">
+        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="3" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="E176" s="5">
-        <v>363</v>
+        <v>520</v>
+      </c>
+      <c r="D176" s="5"/>
+      <c r="E176" s="10">
+        <v>45.24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="3" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="E177" s="5">
-        <v>362</v>
+        <v>525</v>
+      </c>
+      <c r="E177" s="4">
+        <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="3" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>11</v>
+        <v>528</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>11</v>
+        <v>529</v>
+      </c>
+      <c r="E178" s="4">
+        <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="3" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="E179" s="5">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="3" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E180" s="4" t="s">
-        <v>11</v>
+        <v>536</v>
+      </c>
+      <c r="D180" s="5">
+        <v>522</v>
+      </c>
+      <c r="E180" s="5">
+        <v>169</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="3" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>502</v>
+        <v>539</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="E181" s="6">
-        <v>47</v>
+        <v>540</v>
+      </c>
+      <c r="E181" s="5">
+        <v>118</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="3" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="E182" s="5">
-        <v>283</v>
+        <v>363</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="3" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="E183" s="5">
-        <v>283</v>
+        <v>362</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="3" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="D184" s="6"/>
-      <c r="E184" s="5">
-        <v>304</v>
+        <v>11</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="3" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="D185" s="6"/>
+        <v>552</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="E185" s="5">
-        <v>306</v>
+        <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="3" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>542</v>
+        <v>11</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="E186" s="5">
-        <v>338</v>
+        <v>11</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="3" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="E187" s="5">
-        <v>350</v>
+        <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="3" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="E188" s="5">
-        <v>96</v>
+        <v>283</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="3" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="E189" s="6">
-        <v>5</v>
+        <v>561</v>
+      </c>
+      <c r="E189" s="5">
+        <v>283</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="3" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="D190" s="6">
-        <v>484</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="D190" s="5"/>
       <c r="E190" s="5">
-        <v>175</v>
+        <v>304</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="3" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>559</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="E191" s="4">
-        <v>158</v>
+        <v>566</v>
+      </c>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5">
+        <v>306</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="3" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>11</v>
+        <v>568</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E192" s="4" t="s">
-        <v>11</v>
+        <v>569</v>
+      </c>
+      <c r="E192" s="5">
+        <v>338</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="3" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="E193" s="5">
-        <v>325</v>
+        <v>350</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="3" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="E194" s="5">
-        <v>325</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="3" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="E195" s="5">
-        <v>347</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="3" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D196" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E196" s="4" t="s">
-        <v>11</v>
+        <v>583</v>
+      </c>
+      <c r="D196" s="5">
+        <v>484</v>
+      </c>
+      <c r="E196" s="5">
+        <v>175</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="3" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="E197" s="6">
-        <v>173</v>
+        <v>587</v>
+      </c>
+      <c r="E197" s="4">
+        <v>158</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="3" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="E198" s="4">
+        <v>591</v>
+      </c>
+      <c r="E198" s="9">
+        <v>334</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
+      <c r="A199" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="E199" s="9">
+        <v>334</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
+      <c r="A200" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="E200" s="9">
+        <v>344</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
+      <c r="A201" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D201" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="E201" s="9">
+        <v>355</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
+      <c r="A202" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="E202" s="9">
+        <v>144</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
+      <c r="A203" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="E203" s="5">
+        <v>325</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
+      <c r="A204" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="E204" s="5">
+        <v>325</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
+      <c r="A205" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E205" s="5">
+        <v>347</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
+      <c r="A206" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
+      <c r="A207" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="E207" s="5">
+        <v>173</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
+      <c r="A208" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="E208" s="4">
         <v>48</v>
       </c>
     </row>

--- a/king_abbreviation_matches.xlsx
+++ b/king_abbreviation_matches.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="620">
-  <si>
-    <t>Abbreviation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="637">
   <si>
     <t>Full name</t>
   </si>
@@ -118,6 +115,39 @@
     <t>Alexandre</t>
   </si>
   <si>
+    <t>Alexander (III)</t>
+  </si>
+  <si>
+    <t>330–323</t>
+  </si>
+  <si>
+    <t>Alex IV</t>
+  </si>
+  <si>
+    <t>Alexander (IV)</t>
+  </si>
+  <si>
+    <t>311–306</t>
+  </si>
+  <si>
+    <t>Alex I</t>
+  </si>
+  <si>
+    <t>Alexander I Balas</t>
+  </si>
+  <si>
+    <t>150–145</t>
+  </si>
+  <si>
+    <t>Alex II</t>
+  </si>
+  <si>
+    <t>Alexander II Zabinas</t>
+  </si>
+  <si>
+    <t>128–123</t>
+  </si>
+  <si>
     <t>Ame</t>
   </si>
   <si>
@@ -460,9 +490,6 @@
     <t>Aššur-nirari I</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Ašnr I</t>
   </si>
   <si>
@@ -815,6 +842,30 @@
   </si>
   <si>
     <t>Irišum</t>
+  </si>
+  <si>
+    <t>Erišum I</t>
+  </si>
+  <si>
+    <t>1972–1933</t>
+  </si>
+  <si>
+    <t>Iri I</t>
+  </si>
+  <si>
+    <t>Iri II</t>
+  </si>
+  <si>
+    <t>Erišum II</t>
+  </si>
+  <si>
+    <t>(1815)-1809</t>
+  </si>
+  <si>
+    <t>Iri III</t>
+  </si>
+  <si>
+    <t>Erišum III</t>
   </si>
   <si>
     <t>I-Sin</t>
@@ -1951,12 +2002,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1968,16 +2019,10 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -2291,48 +2336,48 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E208"/>
+  <dimension ref="A1:E214"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="30.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="29.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="30.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="29.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="E2" s="5">
         <v>114</v>
@@ -2340,33 +2385,33 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="E4" s="5">
         <v>54</v>
@@ -2374,16 +2419,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="E5" s="5">
         <v>322</v>
@@ -2391,16 +2436,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="E6" s="5">
         <v>323</v>
@@ -2408,16 +2453,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="E7" s="5">
         <v>53</v>
@@ -2425,16 +2470,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="E8" s="5">
         <v>361</v>
@@ -2442,36 +2487,36 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="E9" s="4">
+        <v>182</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="5">
-        <v>163</v>
+      <c r="E10" s="6">
+        <v>185</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
@@ -2479,41 +2524,41 @@
         <v>38</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="5">
-        <v>187</v>
+      <c r="E11" s="6">
+        <v>196</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="5">
-        <v>188</v>
+      <c r="E12" s="6">
+        <v>201</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>46</v>
@@ -2522,7 +2567,7 @@
         <v>47</v>
       </c>
       <c r="E13" s="5">
-        <v>191</v>
+        <v>163</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
@@ -2530,517 +2575,517 @@
         <v>48</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14" s="5">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" s="5">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16" s="5">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" s="5">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E18" s="5">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E19" s="5">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E20" s="5">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21" s="5">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E22" s="5">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>11</v>
+        <v>78</v>
+      </c>
+      <c r="E23" s="5">
+        <v>207</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E24" s="5">
-        <v>333</v>
+        <v>208</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>11</v>
+        <v>84</v>
+      </c>
+      <c r="E25" s="5">
+        <v>211</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="5">
-        <v>213</v>
+        <v>10</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="C27" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E27" s="5">
-        <v>213</v>
+        <v>333</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="5">
-        <v>214</v>
+        <v>10</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E29" s="5">
-        <v>176</v>
+        <v>213</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="E30" s="5">
-        <v>49</v>
+        <v>213</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="E31" s="5">
-        <v>37</v>
+        <v>214</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="D32" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="E32" s="5">
-        <v>156</v>
+        <v>176</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E33" s="5">
-        <v>359</v>
+        <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E34" s="4">
+        <v>113</v>
+      </c>
+      <c r="E34" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="A35" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="5">
+        <v>156</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+      <c r="A36" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="5">
+        <v>359</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+      <c r="A37" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="4">
         <v>360</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" s="5">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="5">
         <v>320</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" s="5">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="5">
         <v>320</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" s="5">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="5">
         <v>364</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
-      <c r="A38" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E38" s="5">
-        <v>330</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
-      <c r="A39" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E39" s="5">
-        <v>330</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
-      <c r="A40" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E40" s="5">
-        <v>345</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E41" s="5">
-        <v>353</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+        <v>330</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>11</v>
+        <v>133</v>
+      </c>
+      <c r="E42" s="5">
+        <v>330</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E43" s="5">
-        <v>101</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+        <v>345</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>139</v>
@@ -3048,8 +3093,8 @@
       <c r="D44" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E44" s="4">
-        <v>339</v>
+      <c r="E44" s="5">
+        <v>353</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
@@ -3057,116 +3102,114 @@
         <v>141</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E45" s="4">
-        <v>339</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+        <v>10</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E46" s="7">
-        <v>348</v>
+        <v>145</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="5">
+        <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="E47" s="4">
-        <v>307</v>
+        <v>339</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9">
-        <v>307</v>
+      <c r="D48" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E48" s="4">
+        <v>339</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E49" s="9">
-        <v>315</v>
+        <v>153</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" s="5">
+        <v>348</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E50" s="9">
-        <v>327</v>
+        <v>157</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4">
+        <v>307</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E51" s="9">
-        <v>341</v>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7">
+        <v>307</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
@@ -3174,16 +3217,16 @@
         <v>159</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E52" s="9">
-        <v>354</v>
+      <c r="E52" s="7">
+        <v>315</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
@@ -3191,33 +3234,33 @@
         <v>162</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>11</v>
+      <c r="D53" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E53" s="7">
+        <v>327</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E54" s="5">
-        <v>102</v>
+      <c r="E54" s="7">
+        <v>341</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
@@ -3225,101 +3268,101 @@
         <v>168</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E55" s="5">
-        <v>55</v>
+      <c r="E55" s="7">
+        <v>354</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="C56" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="E57" s="5">
-        <v>151</v>
+        <v>102</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="D58" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="E58" s="5">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="C59" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D59" s="5">
-        <v>484</v>
-      </c>
-      <c r="E59" s="5">
-        <v>174</v>
+        <v>10</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="D60" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>11</v>
+      <c r="E60" s="5">
+        <v>151</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
@@ -3332,26 +3375,28 @@
       <c r="C61" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D61" s="5"/>
+      <c r="D61" s="4" t="s">
+        <v>190</v>
+      </c>
       <c r="E61" s="5">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D62" s="4" t="s">
         <v>193</v>
       </c>
+      <c r="D62" s="5">
+        <v>484</v>
+      </c>
       <c r="E62" s="5">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
@@ -3362,183 +3407,181 @@
         <v>195</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E63" s="5">
-        <v>167</v>
+        <v>10</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>200</v>
-      </c>
+      <c r="D64" s="5"/>
       <c r="E64" s="5">
-        <v>172</v>
+        <v>78</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E65" s="5">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="C66" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="E66" s="5">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="D67" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>210</v>
-      </c>
       <c r="E67" s="5">
-        <v>195</v>
+        <v>172</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="D68" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E68" s="5">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E69" s="5">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E70" s="5">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E71" s="5">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E72" s="5">
-        <v>31</v>
+        <v>197</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>11</v>
+      <c r="E73" s="5">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
@@ -3546,101 +3589,101 @@
         <v>225</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="D74" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>228</v>
-      </c>
       <c r="E74" s="5">
-        <v>111</v>
+        <v>205</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D75" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>11</v>
+        <v>231</v>
+      </c>
+      <c r="E75" s="5">
+        <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>11</v>
+        <v>236</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>11</v>
+        <v>237</v>
+      </c>
+      <c r="E77" s="5">
+        <v>111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>237</v>
+        <v>10</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E78" s="10">
-        <v>11.2</v>
+        <v>10</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E79" s="5">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
@@ -3651,30 +3694,30 @@
         <v>243</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E80" s="5">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="D81" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>11</v>
+      <c r="E81" s="8">
+        <v>11.2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
@@ -3691,7 +3734,7 @@
         <v>250</v>
       </c>
       <c r="E82" s="5">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
@@ -3702,30 +3745,30 @@
         <v>252</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>11</v>
+        <v>253</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>11</v>
+        <v>254</v>
+      </c>
+      <c r="E83" s="5">
+        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>255</v>
+        <v>10</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="E84" s="5">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
@@ -3736,429 +3779,427 @@
         <v>258</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>11</v>
+        <v>258</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E85" s="5">
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>261</v>
+        <v>10</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E86" s="5">
-        <v>108</v>
+        <v>10</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D87" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>11</v>
+        <v>265</v>
+      </c>
+      <c r="E87" s="5">
+        <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E89" s="5">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D91" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E91" s="4">
+        <v>276</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
+      <c r="A92" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E91" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
-      <c r="A92" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E92" s="5">
-        <v>284</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
       <c r="A93" s="3" t="s">
         <v>279</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5">
-        <v>305</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+      <c r="D93" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E93" s="6">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
       <c r="A94" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>11</v>
+        <v>283</v>
+      </c>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6">
+        <v>303</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E95" s="5">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>285</v>
+        <v>10</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="E96" s="5">
-        <v>87</v>
+        <v>10</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E97" s="5">
-        <v>94</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>292</v>
-      </c>
       <c r="C98" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D98" s="5"/>
+        <v>294</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>295</v>
+      </c>
       <c r="E98" s="5">
-        <v>85</v>
+        <v>284</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5">
-        <v>85</v>
+        <v>305</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D100" s="5">
-        <v>1221</v>
-      </c>
-      <c r="E100" s="5">
-        <v>100</v>
+        <v>10</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E101" s="5">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>301</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E102" s="5">
-        <v>159</v>
+        <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D103" s="5"/>
+        <v>306</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="E103" s="5">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>306</v>
-      </c>
       <c r="C106" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
+      </c>
+      <c r="D106" s="5">
+        <v>1221</v>
       </c>
       <c r="E106" s="5">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D107" s="5"/>
+        <v>315</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>316</v>
+      </c>
       <c r="E107" s="5">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>11</v>
+        <v>318</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>11</v>
+        <v>319</v>
+      </c>
+      <c r="E108" s="5">
+        <v>159</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="3" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>318</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D109" s="5"/>
       <c r="E109" s="5">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="3" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>11</v>
+        <v>324</v>
+      </c>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5">
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="3" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>323</v>
@@ -4168,90 +4209,90 @@
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>323</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D112" s="5"/>
+        <v>327</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>328</v>
+      </c>
       <c r="E112" s="5">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>323</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>328</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="D113" s="5"/>
       <c r="E113" s="5">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>331</v>
+        <v>10</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>334</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>11</v>
+        <v>335</v>
+      </c>
+      <c r="E115" s="5">
+        <v>95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="E116" s="4">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
@@ -4264,11 +4305,9 @@
       <c r="C117" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="D117" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>11</v>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5">
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
@@ -4276,84 +4315,82 @@
         <v>342</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D118" s="5">
-        <v>556</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="D118" s="5"/>
       <c r="E118" s="5">
-        <v>165</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="D119" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>11</v>
+      <c r="E119" s="5">
+        <v>91</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>349</v>
-      </c>
       <c r="D120" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="C121" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C121" s="3" t="s">
-        <v>352</v>
-      </c>
       <c r="D121" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="C122" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="D122" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="D122" s="5">
-        <v>1046</v>
-      </c>
-      <c r="E122" s="5">
-        <v>115</v>
+      <c r="E122" s="4">
+        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
@@ -4367,469 +4404,469 @@
         <v>358</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="E123" s="5">
-        <v>104</v>
+        <v>10</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>361</v>
-      </c>
       <c r="C124" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>11</v>
+        <v>360</v>
+      </c>
+      <c r="D124" s="5">
+        <v>556</v>
+      </c>
+      <c r="E124" s="5">
+        <v>165</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="C125" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>364</v>
-      </c>
       <c r="D125" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="E125" s="5">
-        <v>132</v>
+        <v>10</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>368</v>
-      </c>
       <c r="D126" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="E126" s="5">
-        <v>103</v>
+        <v>10</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="E127" s="5">
-        <v>112</v>
+        <v>10</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
+      </c>
+      <c r="D128" s="5">
+        <v>1046</v>
       </c>
       <c r="E128" s="5">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>11</v>
+        <v>375</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>11</v>
+        <v>376</v>
+      </c>
+      <c r="E129" s="5">
+        <v>104</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>382</v>
+        <v>10</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E130" s="5">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>11</v>
+        <v>381</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>11</v>
+        <v>382</v>
+      </c>
+      <c r="E131" s="5">
+        <v>132</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D132" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>389</v>
-      </c>
       <c r="E132" s="5">
-        <v>131</v>
+        <v>103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D133" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>393</v>
-      </c>
       <c r="E133" s="5">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D134" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>11</v>
+      <c r="E134" s="5">
+        <v>113</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>397</v>
-      </c>
       <c r="C135" s="3" t="s">
-        <v>398</v>
+        <v>10</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="E135" s="5">
-        <v>161</v>
+        <v>10</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D136" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="B136" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>11</v>
+      <c r="E136" s="5">
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B137" s="3" t="s">
-        <v>403</v>
-      </c>
       <c r="C137" s="3" t="s">
-        <v>404</v>
+        <v>10</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="E137" s="5">
-        <v>166</v>
+        <v>10</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D138" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>409</v>
-      </c>
       <c r="E138" s="5">
-        <v>92</v>
+        <v>131</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D139" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B139" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>413</v>
-      </c>
       <c r="E139" s="5">
-        <v>162</v>
+        <v>130</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>416</v>
+        <v>10</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E140" s="5">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="3" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E141" s="5">
-        <v>125</v>
+        <v>161</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>424</v>
+        <v>10</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="E142" s="5">
-        <v>143</v>
+        <v>10</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="3" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="E143" s="5">
-        <v>140</v>
+        <v>166</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="3" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E144" s="5">
-        <v>4</v>
+        <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="3" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="E145" s="5">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="3" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>11</v>
+        <v>433</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>11</v>
+        <v>434</v>
+      </c>
+      <c r="E146" s="5">
+        <v>110</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E147" s="5">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E148" s="5">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="3" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B149" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="D149" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="D149" s="4" t="s">
-        <v>447</v>
-      </c>
       <c r="E149" s="5">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B150" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="C150" s="3" t="s">
+      <c r="D150" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="D150" s="5">
-        <v>732</v>
-      </c>
       <c r="E150" s="5">
-        <v>142</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
@@ -4846,7 +4883,7 @@
         <v>454</v>
       </c>
       <c r="E151" s="5">
-        <v>39</v>
+        <v>164</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
@@ -4857,13 +4894,13 @@
         <v>456</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
@@ -4880,7 +4917,7 @@
         <v>460</v>
       </c>
       <c r="E153" s="5">
-        <v>45</v>
+        <v>139</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
@@ -4888,24 +4925,24 @@
         <v>461</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E154" s="5">
-        <v>45</v>
+        <v>129</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B155" s="3" t="s">
         <v>462</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>458</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>463</v>
@@ -4913,93 +4950,93 @@
       <c r="D155" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="E155" s="10">
-        <v>45.1</v>
+      <c r="E155" s="5">
+        <v>129</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="D156" s="4" t="s">
-        <v>468</v>
+      <c r="D156" s="5">
+        <v>732</v>
       </c>
       <c r="E156" s="5">
-        <v>324</v>
+        <v>142</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B157" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B157" s="3" t="s">
-        <v>466</v>
-      </c>
       <c r="C157" s="3" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E157" s="5">
-        <v>324</v>
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="3" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>471</v>
+        <v>10</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="E158" s="5">
-        <v>340</v>
+        <v>10</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E159" s="5">
-        <v>349</v>
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B160" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="C160" s="3" t="s">
+      <c r="D160" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="D160" s="4" t="s">
-        <v>478</v>
-      </c>
       <c r="E160" s="5">
-        <v>352</v>
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
@@ -5007,7 +5044,7 @@
         <v>479</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>480</v>
@@ -5015,8 +5052,8 @@
       <c r="D161" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="E161" s="5">
-        <v>356</v>
+      <c r="E161" s="8">
+        <v>45.1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
@@ -5032,13 +5069,13 @@
       <c r="D162" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="E162" s="4">
-        <v>357</v>
+      <c r="E162" s="5">
+        <v>324</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="3" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>483</v>
@@ -5047,10 +5084,10 @@
         <v>484</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="E163" s="4">
-        <v>147</v>
+        <v>485</v>
+      </c>
+      <c r="E163" s="5">
+        <v>324</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
@@ -5058,24 +5095,24 @@
         <v>487</v>
       </c>
       <c r="B164" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="C164" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D164" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>11</v>
+        <v>489</v>
+      </c>
+      <c r="E164" s="5">
+        <v>340</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>491</v>
@@ -5084,7 +5121,7 @@
         <v>492</v>
       </c>
       <c r="E165" s="5">
-        <v>56</v>
+        <v>349</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
@@ -5092,367 +5129,367 @@
         <v>493</v>
       </c>
       <c r="B166" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="C166" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D166" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E166" s="4" t="s">
-        <v>11</v>
+        <v>495</v>
+      </c>
+      <c r="E166" s="5">
+        <v>352</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E167" s="5">
-        <v>148</v>
+        <v>356</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="E168" s="5">
-        <v>155</v>
+        <v>502</v>
+      </c>
+      <c r="E168" s="4">
+        <v>357</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="E169" s="5">
-        <v>358</v>
+        <v>503</v>
+      </c>
+      <c r="E169" s="4">
+        <v>147</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="3" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>502</v>
+        <v>10</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="E170" s="4">
-        <v>52</v>
+        <v>10</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="3" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="D171" s="4"/>
+        <v>508</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>509</v>
+      </c>
       <c r="E171" s="5">
-        <v>45.23</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="3" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="D172" s="4"/>
-      <c r="E172" s="5">
-        <v>45.25</v>
+        <v>10</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="3" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E173" s="5">
-        <v>40</v>
+        <v>148</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C174" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D174" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="D174" s="4" t="s">
-        <v>517</v>
-      </c>
       <c r="E174" s="5">
-        <v>42</v>
+        <v>155</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E175" s="5">
-        <v>41</v>
+        <v>358</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="3" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B176" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C176" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="D176" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="D176" s="5"/>
-      <c r="E176" s="10">
-        <v>45.24</v>
+      <c r="E176" s="4">
+        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B177" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="C177" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="C177" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="D177" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="E177" s="4">
-        <v>30</v>
+      <c r="D177" s="4"/>
+      <c r="E177" s="5">
+        <v>45.23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C178" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="B178" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="D178" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="E178" s="4">
-        <v>47</v>
+      <c r="D178" s="4"/>
+      <c r="E178" s="5">
+        <v>45.25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D179" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="B179" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>533</v>
-      </c>
       <c r="E179" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D180" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="B180" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="D180" s="5">
-        <v>522</v>
-      </c>
       <c r="E180" s="5">
-        <v>169</v>
+        <v>42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C181" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="D181" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="C181" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="D181" s="4" t="s">
-        <v>540</v>
-      </c>
       <c r="E181" s="5">
-        <v>118</v>
+        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="E182" s="5">
-        <v>363</v>
+        <v>537</v>
+      </c>
+      <c r="D182" s="5"/>
+      <c r="E182" s="8">
+        <v>45.24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="3" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="E183" s="5">
-        <v>362</v>
+        <v>542</v>
+      </c>
+      <c r="E183" s="4">
+        <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="3" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>11</v>
+        <v>545</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E184" s="4" t="s">
-        <v>11</v>
+        <v>546</v>
+      </c>
+      <c r="E184" s="4">
+        <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D185" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="B185" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>553</v>
-      </c>
       <c r="E185" s="5">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E186" s="4" t="s">
-        <v>11</v>
+        <v>553</v>
+      </c>
+      <c r="D186" s="5">
+        <v>522</v>
+      </c>
+      <c r="E186" s="5">
+        <v>169</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C187" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="D187" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="C187" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="D187" s="4" t="s">
-        <v>529</v>
-      </c>
       <c r="E187" s="5">
-        <v>47</v>
+        <v>118</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
@@ -5463,298 +5500,298 @@
         <v>559</v>
       </c>
       <c r="C188" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D188" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="D188" s="4" t="s">
-        <v>561</v>
-      </c>
       <c r="E188" s="5">
-        <v>283</v>
+        <v>363</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B189" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="B189" s="3" t="s">
-        <v>559</v>
-      </c>
       <c r="C189" s="3" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="E189" s="5">
-        <v>283</v>
+        <v>362</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="3" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="D190" s="5"/>
-      <c r="E190" s="5">
-        <v>304</v>
+        <v>10</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="3" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="D191" s="5"/>
+        <v>569</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>570</v>
+      </c>
       <c r="E191" s="5">
-        <v>306</v>
+        <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="3" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>568</v>
+        <v>10</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="E192" s="5">
-        <v>338</v>
+        <v>10</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="3" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>571</v>
+        <v>545</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="E193" s="5">
-        <v>350</v>
+        <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="3" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E194" s="5">
-        <v>96</v>
+        <v>283</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C195" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="D195" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="C195" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="D195" s="4" t="s">
-        <v>580</v>
-      </c>
       <c r="E195" s="5">
-        <v>5</v>
+        <v>283</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C196" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="B196" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D196" s="5">
-        <v>484</v>
-      </c>
+      <c r="D196" s="5"/>
       <c r="E196" s="5">
-        <v>175</v>
+        <v>304</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="E197" s="4">
-        <v>158</v>
+        <v>583</v>
+      </c>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5">
+        <v>306</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="3" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="E198" s="9">
-        <v>334</v>
+        <v>586</v>
+      </c>
+      <c r="E198" s="5">
+        <v>338</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="3" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B199" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D199" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="C199" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="D199" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="E199" s="9">
-        <v>334</v>
+      <c r="E199" s="5">
+        <v>350</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D200" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="B200" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="D200" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="E200" s="9">
-        <v>344</v>
+      <c r="E200" s="5">
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C201" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="B201" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="C201" s="3" t="s">
+      <c r="D201" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="D201" s="9" t="s">
-        <v>598</v>
-      </c>
-      <c r="E201" s="9">
-        <v>355</v>
+      <c r="E201" s="5">
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B202" s="3" t="s">
         <v>599</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>589</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="D202" s="9" t="s">
-        <v>601</v>
-      </c>
-      <c r="E202" s="9">
-        <v>144</v>
+      <c r="D202" s="5">
+        <v>484</v>
+      </c>
+      <c r="E202" s="5">
+        <v>175</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B203" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="C203" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="D203" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="D203" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="E203" s="5">
-        <v>325</v>
+      <c r="E203" s="4">
+        <v>158</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B204" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="B204" s="3" t="s">
-        <v>603</v>
-      </c>
       <c r="C204" s="3" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="E204" s="5">
-        <v>325</v>
+        <v>608</v>
+      </c>
+      <c r="E204" s="7">
+        <v>334</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="C205" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="B205" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="C205" s="3" t="s">
+      <c r="D205" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="D205" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="E205" s="5">
-        <v>347</v>
+      <c r="E205" s="7">
+        <v>334</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
@@ -5762,33 +5799,33 @@
         <v>610</v>
       </c>
       <c r="B206" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="C206" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="C206" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D206" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E206" s="4" t="s">
-        <v>11</v>
+      <c r="D206" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="E206" s="7">
+        <v>344</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="D207" s="4" t="s">
+      <c r="D207" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="E207" s="5">
-        <v>173</v>
+      <c r="E207" s="7">
+        <v>355</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
@@ -5796,15 +5833,117 @@
         <v>616</v>
       </c>
       <c r="B208" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="C208" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="D208" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="D208" s="4" t="s">
+      <c r="E208" s="7">
+        <v>144</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
+      <c r="A209" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="E208" s="4">
+      <c r="B209" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="E209" s="5">
+        <v>325</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
+      <c r="A210" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="E210" s="5">
+        <v>325</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
+      <c r="A211" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="E211" s="5">
+        <v>347</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
+      <c r="A212" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
+      <c r="A213" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="E213" s="5">
+        <v>173</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
+      <c r="A214" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="E214" s="4">
         <v>48</v>
       </c>
     </row>

--- a/king_abbreviation_matches.xlsx
+++ b/king_abbreviation_matches.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20417"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\fossey-ocr\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACE7867-EB15-426C-9107-E404D1028F21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="708">
   <si>
     <t>Full name</t>
   </si>
@@ -1060,18 +1066,12 @@
     <t>Lugal-anda (Lagaš).</t>
   </si>
   <si>
-    <t>Lugalanda</t>
-  </si>
-  <si>
     <t>L-dudu</t>
   </si>
   <si>
     <t>Lugal-kigubnidudu</t>
   </si>
   <si>
-    <t>Lugalkineshdudu</t>
-  </si>
-  <si>
     <t>Libiti</t>
   </si>
   <si>
@@ -1090,9 +1090,6 @@
     <t>Lugal-zaggisi</t>
   </si>
   <si>
-    <t>Lugalzagesi</t>
-  </si>
-  <si>
     <t>L-M</t>
   </si>
   <si>
@@ -1105,18 +1102,12 @@
     <t>Lugal-kisalsi</t>
   </si>
   <si>
-    <t>Lugalkisalesi</t>
-  </si>
-  <si>
     <t>L-tarsi</t>
   </si>
   <si>
     <t>Lugal-tarsi</t>
   </si>
   <si>
-    <t>Lugalsilasi</t>
-  </si>
-  <si>
     <t>L-ušumgal</t>
   </si>
   <si>
@@ -1558,15 +1549,9 @@
     <t>Sennacherib</t>
   </si>
   <si>
-    <t>704–703</t>
-  </si>
-  <si>
     <t>Si</t>
   </si>
   <si>
-    <t>688–681</t>
-  </si>
-  <si>
     <t>704–681</t>
   </si>
   <si>
@@ -1925,13 +1910,246 @@
   </si>
   <si>
     <t>1844–1831</t>
+  </si>
+  <si>
+    <t>Ammi-madar</t>
+  </si>
+  <si>
+    <t>Puzur-Mama</t>
+  </si>
+  <si>
+    <t>Notiz: RTC 83 or 181? Die Inschriften wurden erst nach Fossey publiziert</t>
+  </si>
+  <si>
+    <t>Notiz: Sarg., Bruder eines Königs RIME 2.0.0.1001</t>
+  </si>
+  <si>
+    <t>45.88</t>
+  </si>
+  <si>
+    <t>Notiz: Sarg., Sohn eines Königs, vermutlich des Šar-kali-šarri Westenholz, RlA</t>
+  </si>
+  <si>
+    <t>Nammahani</t>
+  </si>
+  <si>
+    <t>11.22</t>
+  </si>
+  <si>
+    <t>45.56</t>
+  </si>
+  <si>
+    <t>Anum-muttabbil</t>
+  </si>
+  <si>
+    <t>45.67</t>
+  </si>
+  <si>
+    <t>Ašduni-yarim</t>
+  </si>
+  <si>
+    <t>45.78</t>
+  </si>
+  <si>
+    <t>Aššur-rem-nišešu</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>Buntahtun-ila</t>
+  </si>
+  <si>
+    <t>45.74</t>
+  </si>
+  <si>
+    <t>E-anatum</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>En-anatum I</t>
+  </si>
+  <si>
+    <t>Enan II</t>
+  </si>
+  <si>
+    <t>Enan I</t>
+  </si>
+  <si>
+    <t>En-anatum II</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>En-šakuš-ana</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>En-metena</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>Notiz: Post-Sarg. Weihinschrift; frühe Lesung von Lušaga in YOS 1, 9</t>
+  </si>
+  <si>
+    <t>Lušaga</t>
+  </si>
+  <si>
+    <t>Ipiq-Eštar</t>
+  </si>
+  <si>
+    <t>31.21</t>
+  </si>
+  <si>
+    <t>45.71</t>
+  </si>
+  <si>
+    <t>45.73</t>
+  </si>
+  <si>
+    <t>Išar-Lim</t>
+  </si>
+  <si>
+    <t>56.17</t>
+  </si>
+  <si>
+    <t>Yawium</t>
+  </si>
+  <si>
+    <t>45.79</t>
+  </si>
+  <si>
+    <t>Kaštiliašu</t>
+  </si>
+  <si>
+    <t>56.14</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Mananaya</t>
+  </si>
+  <si>
+    <t>45.94</t>
+  </si>
+  <si>
+    <t>11.03</t>
+  </si>
+  <si>
+    <t>Lugal-sila</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>Lugal-zage-si</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>Lugal-anda</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>Lugal-kigine-dudu</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>Seleucus I Nicator</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>305–281</t>
+  </si>
+  <si>
+    <t>Sel I</t>
+  </si>
+  <si>
+    <t>Sel II</t>
+  </si>
+  <si>
+    <t>Sel III</t>
+  </si>
+  <si>
+    <t>Sel IV</t>
+  </si>
+  <si>
+    <t>Sel V</t>
+  </si>
+  <si>
+    <t>Seleucus II Callinicus</t>
+  </si>
+  <si>
+    <t>Seleucus III Soter</t>
+  </si>
+  <si>
+    <t>225–223</t>
+  </si>
+  <si>
+    <t>246–225</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>Seleucus IV Philopator</t>
+  </si>
+  <si>
+    <t>187–175</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>Seleucus V Philometor</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>Seleucus VI Epiphanes Nicator</t>
+  </si>
+  <si>
+    <t>Sel VI</t>
+  </si>
+  <si>
+    <t>96–94</t>
+  </si>
+  <si>
+    <t>206</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2003,46 +2221,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2053,10 +2270,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2094,71 +2311,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2186,7 +2403,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -2209,11 +2426,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -2222,13 +2439,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2238,7 +2455,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2247,7 +2464,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2256,7 +2473,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2264,10 +2481,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -2332,24 +2549,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E214"/>
+  <dimension ref="A1:F220"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:C28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="30.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="29.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>8</v>
       </c>
@@ -2359,14 +2577,14 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2376,14 +2594,14 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="7">
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -2391,16 +2609,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+        <v>630</v>
+      </c>
+      <c r="E3" s="8">
+        <v>56.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -2410,14 +2625,14 @@
       <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="7">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -2427,14 +2642,14 @@
       <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="7">
         <v>322</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -2444,14 +2659,14 @@
       <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="7">
         <v>323</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -2461,14 +2676,14 @@
       <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="7">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -2478,14 +2693,14 @@
       <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="7">
         <v>361</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
@@ -2495,14 +2710,14 @@
       <c r="C9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="8">
         <v>182</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -2512,14 +2727,14 @@
       <c r="C10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="9">
         <v>185</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
@@ -2529,14 +2744,14 @@
       <c r="C11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="9">
         <v>196</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
@@ -2546,14 +2761,14 @@
       <c r="C12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="9">
         <v>201</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>44</v>
       </c>
@@ -2563,14 +2778,14 @@
       <c r="C13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="7">
         <v>163</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>48</v>
       </c>
@@ -2580,14 +2795,14 @@
       <c r="C14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="7">
         <v>187</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
@@ -2597,14 +2812,14 @@
       <c r="C15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="7">
         <v>188</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>55</v>
       </c>
@@ -2614,14 +2829,14 @@
       <c r="C16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="7">
         <v>191</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>58</v>
       </c>
@@ -2631,14 +2846,14 @@
       <c r="C17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="7">
         <v>193</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>61</v>
       </c>
@@ -2648,14 +2863,14 @@
       <c r="C18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="7">
         <v>194</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>64</v>
       </c>
@@ -2665,14 +2880,14 @@
       <c r="C19" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="7">
         <v>198</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>67</v>
       </c>
@@ -2682,14 +2897,14 @@
       <c r="C20" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="7">
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>70</v>
       </c>
@@ -2699,14 +2914,14 @@
       <c r="C21" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="7">
         <v>202</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row r="22" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>73</v>
       </c>
@@ -2716,14 +2931,14 @@
       <c r="C22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="7">
         <v>204</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>76</v>
       </c>
@@ -2733,14 +2948,14 @@
       <c r="C23" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="7">
         <v>207</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>79</v>
       </c>
@@ -2750,14 +2965,14 @@
       <c r="C24" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="7">
         <v>208</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>82</v>
       </c>
@@ -2767,14 +2982,14 @@
       <c r="C25" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="7">
         <v>211</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>85</v>
       </c>
@@ -2782,16 +2997,14 @@
         <v>86</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+        <v>86</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8">
+        <v>31.31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>87</v>
       </c>
@@ -2801,14 +3014,14 @@
       <c r="C27" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="7">
         <v>333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+    <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>91</v>
       </c>
@@ -2818,14 +3031,14 @@
       <c r="C28" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>94</v>
       </c>
@@ -2835,14 +3048,14 @@
       <c r="C29" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="7">
         <v>213</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+    <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>98</v>
       </c>
@@ -2852,14 +3065,14 @@
       <c r="C30" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="7">
         <v>213</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+    <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>99</v>
       </c>
@@ -2869,14 +3082,14 @@
       <c r="C31" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="7">
         <v>214</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+    <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>102</v>
       </c>
@@ -2886,14 +3099,14 @@
       <c r="C32" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="7">
         <v>176</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+    <row r="33" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>106</v>
       </c>
@@ -2903,14 +3116,14 @@
       <c r="C33" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="7">
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+    <row r="34" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>110</v>
       </c>
@@ -2920,14 +3133,14 @@
       <c r="C34" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="7">
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+    <row r="35" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>114</v>
       </c>
@@ -2937,14 +3150,14 @@
       <c r="C35" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="7">
         <v>156</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+    <row r="36" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>114</v>
       </c>
@@ -2954,14 +3167,14 @@
       <c r="C36" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="7">
         <v>359</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+    <row r="37" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>118</v>
       </c>
@@ -2971,14 +3184,14 @@
       <c r="C37" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="8">
         <v>360</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>122</v>
       </c>
@@ -2988,14 +3201,14 @@
       <c r="C38" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="7">
         <v>320</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>126</v>
       </c>
@@ -3005,14 +3218,14 @@
       <c r="C39" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="7">
         <v>320</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>127</v>
       </c>
@@ -3022,14 +3235,14 @@
       <c r="C40" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="7">
         <v>364</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+    <row r="41" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>130</v>
       </c>
@@ -3039,14 +3252,14 @@
       <c r="C41" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="7">
         <v>330</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+    <row r="42" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>134</v>
       </c>
@@ -3056,14 +3269,14 @@
       <c r="C42" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="7">
         <v>330</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+    <row r="43" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>135</v>
       </c>
@@ -3073,14 +3286,14 @@
       <c r="C43" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="7">
         <v>345</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+    <row r="44" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>138</v>
       </c>
@@ -3090,31 +3303,28 @@
       <c r="C44" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="7">
         <v>353</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+      <c r="C45" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>143</v>
       </c>
@@ -3124,14 +3334,14 @@
       <c r="C46" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="7">
         <v>101</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>147</v>
       </c>
@@ -3141,14 +3351,14 @@
       <c r="C47" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="8">
         <v>339</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>151</v>
       </c>
@@ -3158,14 +3368,14 @@
       <c r="C48" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="8">
         <v>339</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>152</v>
       </c>
@@ -3175,14 +3385,14 @@
       <c r="C49" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="7">
         <v>348</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>155</v>
       </c>
@@ -3192,12 +3402,12 @@
       <c r="C50" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4">
+      <c r="D50" s="8"/>
+      <c r="E50" s="8">
         <v>307</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>158</v>
       </c>
@@ -3207,12 +3417,12 @@
       <c r="C51" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7">
+      <c r="D51" s="10"/>
+      <c r="E51" s="10">
         <v>307</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>159</v>
       </c>
@@ -3222,14 +3432,14 @@
       <c r="C52" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="10">
         <v>315</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>162</v>
       </c>
@@ -3239,14 +3449,14 @@
       <c r="C53" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="10">
         <v>327</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>165</v>
       </c>
@@ -3256,14 +3466,14 @@
       <c r="C54" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="10">
         <v>341</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>168</v>
       </c>
@@ -3273,31 +3483,28 @@
       <c r="C55" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="10">
         <v>354</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="C56" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>173</v>
       </c>
@@ -3307,14 +3514,14 @@
       <c r="C57" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="7">
         <v>102</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>177</v>
       </c>
@@ -3324,14 +3531,14 @@
       <c r="C58" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="7">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>181</v>
       </c>
@@ -3339,16 +3546,16 @@
         <v>182</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+        <v>631</v>
+      </c>
+      <c r="E59" s="8">
+        <v>11.05</v>
+      </c>
+      <c r="F59" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>183</v>
       </c>
@@ -3358,14 +3565,14 @@
       <c r="C60" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="7">
         <v>151</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>187</v>
       </c>
@@ -3375,14 +3582,14 @@
       <c r="C61" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="7">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>191</v>
       </c>
@@ -3392,31 +3599,28 @@
       <c r="C62" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="7">
         <v>484</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="7">
         <v>174</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+      <c r="C63" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>196</v>
       </c>
@@ -3426,12 +3630,12 @@
       <c r="C64" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5">
+      <c r="D64" s="7"/>
+      <c r="E64" s="7">
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>199</v>
       </c>
@@ -3441,14 +3645,14 @@
       <c r="C65" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="7">
         <v>168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>203</v>
       </c>
@@ -3458,14 +3662,14 @@
       <c r="C66" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="7">
         <v>167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>206</v>
       </c>
@@ -3475,14 +3679,14 @@
       <c r="C67" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67" s="7">
         <v>172</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>210</v>
       </c>
@@ -3492,14 +3696,14 @@
       <c r="C68" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68" s="7">
         <v>177</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>213</v>
       </c>
@@ -3509,14 +3713,14 @@
       <c r="C69" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E69" s="7">
         <v>181</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>216</v>
       </c>
@@ -3526,14 +3730,14 @@
       <c r="C70" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="7">
         <v>195</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>220</v>
       </c>
@@ -3543,14 +3747,14 @@
       <c r="C71" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="7">
         <v>195</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>221</v>
       </c>
@@ -3560,14 +3764,14 @@
       <c r="C72" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="7">
         <v>197</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>221</v>
       </c>
@@ -3577,14 +3781,14 @@
       <c r="C73" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E73" s="7">
         <v>200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row r="74" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>225</v>
       </c>
@@ -3594,14 +3798,14 @@
       <c r="C74" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E74" s="7">
         <v>205</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>228</v>
       </c>
@@ -3611,31 +3815,28 @@
       <c r="C75" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="7">
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>232</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+      <c r="C76" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>234</v>
       </c>
@@ -3645,2309 +3846,2365 @@
       <c r="C77" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="7">
         <v>111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>238</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E83" s="7">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E84" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E85" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="D86" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="E86" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="E81" s="8">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
-      <c r="A82" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="E82" s="5">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E83" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="3" t="s">
+      <c r="F86" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D87" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E87" s="7">
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="3" t="s">
+    <row r="88" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
-      <c r="A87" s="3" t="s">
+      <c r="C88" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B89" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D89" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E89" s="7">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
-      <c r="A88" s="3" t="s">
+    <row r="90" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B90" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
-      <c r="A89" s="3" t="s">
+      <c r="C90" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B91" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D91" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E91" s="7">
         <v>108</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
-      <c r="A90" s="3" t="s">
+    <row r="92" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B92" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
-      <c r="A91" s="3" t="s">
+      <c r="C92" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E91" s="4">
-        <v>276</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
-      <c r="A92" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
-      <c r="A93" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>275</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E93" s="6">
-        <v>282</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
+        <v>276</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E93" s="8">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>275</v>
       </c>
       <c r="C94" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E94" s="8">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="E95" s="9">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6">
+      <c r="E96" s="9">
         <v>303</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
-      <c r="A95" s="3" t="s">
+    <row r="97" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D97" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E97" s="7">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
-      <c r="A96" s="3" t="s">
+    <row r="98" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B98" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
-      <c r="A97" s="3" t="s">
+      <c r="C98" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E97" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
-      <c r="A98" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="E98" s="5">
-        <v>284</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
-      <c r="A99" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>291</v>
       </c>
       <c r="C99" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E99" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E100" s="7">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5">
+      <c r="D101" s="7"/>
+      <c r="E101" s="7">
         <v>305</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
-      <c r="A100" s="3" t="s">
+    <row r="102" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
-      <c r="A101" s="3" t="s">
+      <c r="C102" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="E101" s="5">
-        <v>87</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
-      <c r="A102" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="E102" s="5">
-        <v>87</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
-      <c r="A103" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>301</v>
       </c>
       <c r="C103" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E103" s="7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E104" s="7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D105" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="E103" s="5">
+      <c r="E105" s="7">
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
-      <c r="A104" s="3" t="s">
+    <row r="106" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5">
-        <v>85</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
-      <c r="A105" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5">
-        <v>85</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
-      <c r="A106" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>309</v>
       </c>
       <c r="C106" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D106" s="5">
+      <c r="D108" s="7">
         <v>1221</v>
       </c>
-      <c r="E106" s="5">
+      <c r="E108" s="7">
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
-      <c r="A107" s="3" t="s">
+    <row r="109" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D109" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="E107" s="5">
+      <c r="E109" s="7">
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
-      <c r="A108" s="3" t="s">
+    <row r="110" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B110" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D110" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="E108" s="5">
+      <c r="E110" s="7">
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
-      <c r="A109" s="3" t="s">
+    <row r="111" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B111" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5">
+      <c r="D111" s="7"/>
+      <c r="E111" s="7">
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
-      <c r="A110" s="3" t="s">
+    <row r="112" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5">
-        <v>71</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
-      <c r="A111" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5">
-        <v>71</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
-      <c r="A112" s="3" t="s">
-        <v>326</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>323</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="E112" s="5">
-        <v>97</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+        <v>324</v>
+      </c>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>323</v>
       </c>
       <c r="C113" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E114" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5">
+      <c r="D115" s="7"/>
+      <c r="E115" s="7">
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
-      <c r="A114" s="3" t="s">
+    <row r="116" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B116" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C116" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="E117" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D118" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="E118" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E114" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
-      <c r="A115" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="E115" s="5">
-        <v>95</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
-      <c r="A116" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
-      <c r="A117" s="3" t="s">
+    </row>
+    <row r="119" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5">
-        <v>86</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
-      <c r="A118" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5">
-        <v>86</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
-      <c r="A119" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>340</v>
       </c>
       <c r="C119" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D121" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="E119" s="5">
+      <c r="E121" s="7">
         <v>91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
-      <c r="A120" s="3" t="s">
+    <row r="122" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B122" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C122" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="B123" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="E124" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D126" s="7">
+        <v>556</v>
+      </c>
+      <c r="E126" s="7">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D130" s="7">
+        <v>1046</v>
+      </c>
+      <c r="E130" s="7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E131" s="7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="E133" s="7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E134" s="7">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E135" s="7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="E136" s="7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="E138" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="E140" s="7">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="E141" s="7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="E143" s="7">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="E145" s="7">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="E146" s="7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="E147" s="7">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="E148" s="7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="E149" s="7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E150" s="7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="E151" s="7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="E152" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="E153" s="7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E120" s="4" t="s">
+      <c r="D154" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
-      <c r="A121" s="3" t="s">
+      <c r="E154" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="E155" s="7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="E156" s="7">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="E157" s="7">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D158" s="7">
+        <v>732</v>
+      </c>
+      <c r="E158" s="7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="E159" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="E161" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="E162" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="E163" s="7">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="E164" s="7">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="E165" s="7">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="E166" s="7">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="E167" s="7">
         <v>349</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
-      <c r="A122" s="3" t="s">
+    </row>
+    <row r="168" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="E168" s="7">
         <v>352</v>
       </c>
-      <c r="B122" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="E122" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
-      <c r="A123" s="3" t="s">
+    </row>
+    <row r="169" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="E169" s="7">
         <v>356</v>
       </c>
-      <c r="B123" s="3" t="s">
+    </row>
+    <row r="170" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="E170" s="8">
         <v>357</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
-      <c r="A124" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D124" s="5">
-        <v>556</v>
-      </c>
-      <c r="E124" s="5">
-        <v>165</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
-      <c r="A125" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
-      <c r="A126" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
-      <c r="A127" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
-      <c r="A128" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D128" s="5">
-        <v>1046</v>
-      </c>
-      <c r="E128" s="5">
-        <v>115</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
-      <c r="A129" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="E129" s="5">
-        <v>104</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
-      <c r="A130" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
-      <c r="A131" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="E131" s="5">
-        <v>132</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
-      <c r="A132" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="E132" s="5">
-        <v>103</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
-      <c r="A133" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="E133" s="5">
-        <v>112</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
-      <c r="A134" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="E134" s="5">
-        <v>113</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
-      <c r="A135" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
-      <c r="A136" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="E136" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
-      <c r="A137" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
-      <c r="A138" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="E138" s="5">
-        <v>131</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
-      <c r="A139" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E139" s="5">
-        <v>130</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
-      <c r="A140" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
-      <c r="A141" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E141" s="5">
-        <v>161</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
-      <c r="A142" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
-      <c r="A143" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="E143" s="5">
-        <v>166</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
-      <c r="A144" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="E144" s="5">
-        <v>92</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
-      <c r="A145" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="E145" s="5">
-        <v>162</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
-      <c r="A146" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="E146" s="5">
-        <v>110</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
-      <c r="A147" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="E147" s="5">
-        <v>125</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
-      <c r="A148" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="E148" s="5">
-        <v>143</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
-      <c r="A149" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="E149" s="5">
-        <v>140</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
-      <c r="A150" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="E150" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
-      <c r="A151" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="E151" s="5">
-        <v>164</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
-      <c r="A152" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
-      <c r="A153" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="E153" s="5">
-        <v>139</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
-      <c r="A154" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="E154" s="5">
-        <v>129</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
-      <c r="A155" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="E155" s="5">
-        <v>129</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
-      <c r="A156" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="D156" s="5">
-        <v>732</v>
-      </c>
-      <c r="E156" s="5">
-        <v>142</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
-      <c r="A157" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="E157" s="5">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
-      <c r="A158" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
-      <c r="A159" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E159" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
-      <c r="A160" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E160" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
-      <c r="A161" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="E161" s="8">
-        <v>45.1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
-      <c r="A162" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="E162" s="5">
-        <v>324</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
-      <c r="A163" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="E163" s="5">
-        <v>324</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
-      <c r="A164" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="E164" s="5">
-        <v>340</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
-      <c r="A165" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="E165" s="5">
-        <v>349</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
-      <c r="A166" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C166" s="3" t="s">
+    </row>
+    <row r="171" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="D166" s="4" t="s">
+      <c r="B171" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="E166" s="5">
-        <v>352</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
-      <c r="A167" s="3" t="s">
+      <c r="C171" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="B167" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="D167" s="4" t="s">
+      <c r="D171" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="E167" s="5">
-        <v>356</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
-      <c r="A168" s="3" t="s">
+      <c r="E171" s="8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B172" s="3" t="s">
         <v>500</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="E168" s="4">
-        <v>357</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
-      <c r="A169" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="E169" s="4">
-        <v>147</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
-      <c r="A170" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
-      <c r="A171" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="E171" s="5">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
-      <c r="A172" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>511</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D172" s="4" t="s">
+      <c r="D172" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E172" s="4" t="s">
+      <c r="E172" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
+      <c r="F172" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="E173" s="7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="E181" s="7">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C182" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="D182" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="C173" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="D173" s="4" t="s">
+      <c r="E182" s="8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="E173" s="5">
-        <v>148</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
-      <c r="A174" s="3" t="s">
+      <c r="B183" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="B174" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="D174" s="4" t="s">
+      <c r="C183" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E174" s="5">
-        <v>155</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
-      <c r="A175" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="D175" s="4" t="s">
+      <c r="D183" s="8"/>
+      <c r="E183" s="7">
+        <v>45.23</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E175" s="5">
-        <v>358</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
-      <c r="A176" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B176" s="3" t="s">
+      <c r="B184" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C184" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="D176" s="4" t="s">
+      <c r="D184" s="8"/>
+      <c r="E184" s="7">
+        <v>45.25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="E176" s="4">
-        <v>52</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
-      <c r="A177" s="3" t="s">
+      <c r="B185" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="C185" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="D185" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="D177" s="4"/>
-      <c r="E177" s="5">
-        <v>45.23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
-      <c r="A178" s="3" t="s">
+      <c r="E185" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B186" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C186" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="D178" s="4"/>
-      <c r="E178" s="5">
-        <v>45.25</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
-      <c r="A179" s="3" t="s">
+      <c r="D186" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="E186" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="B187" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="D179" s="4" t="s">
+      <c r="C187" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="E179" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
-      <c r="A180" s="3" t="s">
+      <c r="D187" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="E187" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="B188" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="D188" s="7"/>
+      <c r="E188" s="7">
+        <v>45.24</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B189" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="D180" s="4" t="s">
+      <c r="C189" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="E180" s="5">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
-      <c r="A181" s="3" t="s">
+      <c r="D189" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="E189" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="B190" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="D181" s="4" t="s">
+      <c r="C190" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="E181" s="5">
-        <v>41</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
-      <c r="A182" s="3" t="s">
+      <c r="D190" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="B182" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="D182" s="5"/>
-      <c r="E182" s="8">
-        <v>45.24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
-      <c r="A183" s="3" t="s">
+      <c r="E190" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="E191" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="D192" s="7">
+        <v>522</v>
+      </c>
+      <c r="E192" s="7">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="E193" s="7">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E194" s="7">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="E195" s="7">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E196" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E197" s="7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E198" s="8" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D199" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="B183" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="E183" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
-      <c r="A184" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="E184" s="4">
+      <c r="E199" s="7">
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
-      <c r="A185" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="E185" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
-      <c r="A186" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="D186" s="5">
-        <v>522</v>
-      </c>
-      <c r="E186" s="5">
-        <v>169</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
-      <c r="A187" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="D187" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="E187" s="5">
-        <v>118</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
-      <c r="A188" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="D188" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="E188" s="5">
-        <v>363</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
-      <c r="A189" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="D189" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="E189" s="5">
-        <v>362</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
-      <c r="A190" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="C190" s="3" t="s">
+    <row r="200" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="E200" s="7">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="E201" s="7">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="D202" s="7"/>
+      <c r="E202" s="7">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D203" s="7"/>
+      <c r="E203" s="7">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="E204" s="7">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E205" s="7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="E206" s="7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="E207" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="D208" s="7">
+        <v>484</v>
+      </c>
+      <c r="E208" s="7">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D209" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="E209" s="8">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E210" s="10">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D211" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="E211" s="10">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D212" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="E212" s="10">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="D213" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="E213" s="10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D214" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="E214" s="10">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="E215" s="7">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="E216" s="7">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="D217" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="E217" s="7">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C218" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D190" s="4" t="s">
+      <c r="D218" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E190" s="4" t="s">
+      <c r="E218" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
-      <c r="A191" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="E191" s="5">
-        <v>46</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
-      <c r="A192" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D192" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E192" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
-      <c r="A193" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="D193" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="E193" s="5">
-        <v>47</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
-      <c r="A194" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="E194" s="5">
-        <v>283</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
-      <c r="A195" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="D195" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="E195" s="5">
-        <v>283</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
-      <c r="A196" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="D196" s="5"/>
-      <c r="E196" s="5">
-        <v>304</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
-      <c r="A197" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D197" s="5"/>
-      <c r="E197" s="5">
-        <v>306</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
-      <c r="A198" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="D198" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="E198" s="5">
-        <v>338</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
-      <c r="A199" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="D199" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="E199" s="5">
-        <v>350</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
-      <c r="A200" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="E200" s="5">
-        <v>96</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
-      <c r="A201" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="E201" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
-      <c r="A202" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="D202" s="5">
-        <v>484</v>
-      </c>
-      <c r="E202" s="5">
-        <v>175</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
-      <c r="A203" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="E203" s="4">
-        <v>158</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
-      <c r="A204" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="D204" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="E204" s="7">
-        <v>334</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
-      <c r="A205" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="D205" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="E205" s="7">
-        <v>334</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
-      <c r="A206" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="D206" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="E206" s="7">
-        <v>344</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
-      <c r="A207" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="D207" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="E207" s="7">
-        <v>355</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
-      <c r="A208" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="D208" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="E208" s="7">
-        <v>144</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
-      <c r="A209" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="D209" s="4" t="s">
+      <c r="F218" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="E209" s="5">
-        <v>325</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
-      <c r="A210" s="3" t="s">
+      <c r="B219" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B210" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="D210" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="E210" s="5">
-        <v>325</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
-      <c r="A211" s="3" t="s">
+      <c r="C219" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="B211" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="C211" s="3" t="s">
+      <c r="D219" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="D211" s="4" t="s">
+      <c r="E219" s="7">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="E211" s="5">
-        <v>347</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
-      <c r="A212" s="3" t="s">
+      <c r="B220" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="C220" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="C212" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D212" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E212" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
-      <c r="A213" s="3" t="s">
+      <c r="D220" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="B213" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="D213" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="E213" s="5">
-        <v>173</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
-      <c r="A214" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="D214" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="E214" s="4">
+      <c r="E220" s="8">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>